--- a/MainTop/26.06.2025 Таня ВБ/спрос_sorted_упаковано.xlsx
+++ b/MainTop/26.06.2025 Таня ВБ/спрос_sorted_упаковано.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\26.06.2025 Таня ВБ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\26.06.2025 Таня ВБ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481C6B93-7B5F-4A75-9F6E-64C1110E7173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52309534-542A-4C8B-9DE8-3C12CC9809F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -797,17 +797,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46" customWidth="1"/>
-    <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -3204,5 +3206,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MainTop/26.06.2025 Таня ВБ/спрос_sorted_упаковано.xlsx
+++ b/MainTop/26.06.2025 Таня ВБ/спрос_sorted_упаковано.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\26.06.2025 Таня ВБ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481C6B93-7B5F-4A75-9F6E-64C1110E7173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D7B2DB-5D08-45D3-B012-BFCBCAA7D669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -797,7 +797,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="J82" sqref="J82"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
